--- a/biology/Botanique/Solanum_torvum/Solanum_torvum.xlsx
+++ b/biology/Botanique/Solanum_torvum/Solanum_torvum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum torvum, aussi appelée Aubergine sauvage ou Fausse aubergine, est une espèce de plantes de la famille des Solanaceae.
 Elle est notamment connue pour son utilisation comme porte-greffe pour l'aubergine.
@@ -514,18 +526,128 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-Solanum torvum est une plante arbustive peu ramifiée, pouvant atteindre 5 mètres de hauteur et 8 cm de diamètre basal. Les tiges pubescentes, étalées ou retombantes sont munies de quelques épines acérées éparses.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solanum torvum est une plante arbustive peu ramifiée, pouvant atteindre 5 mètres de hauteur et 8 cm de diamètre basal. Les tiges pubescentes, étalées ou retombantes sont munies de quelques épines acérées éparses.
 L'arbuste a généralement une seule tige au niveau du sol, mais il peut se ramifier sur la tige inférieure.  L'écorce de la tige est grise et presque lisse avec des lenticelles surélevées.
 Les rameaux sont gris-vert et couverts de poils en forme d'étoile. Les épines sont courtes et légèrement courbées et varient d'épaisses sur toute la plante, y compris la nervure médiane des feuilles, à totalement absentes.
-Feuilles
-Les feuilles longuement pétiolées sont simples, alternes, membraneuses. Le limbe est largement ovale, à marge grossièrement lobée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles longuement pétiolées sont simples, alternes, membraneuses. Le limbe est largement ovale, à marge grossièrement lobée.
 Les pétioles mesurent 1 à 6 cm de long et les limbes mesurent 7 à 23 sur 5 à 18 cm et sont couverts de poils courts.
-Fleurs
-Les fleurs sont en groupes latéraux et regroupées en cymes corymbiformes, la corolle blanche est composée de cinq lobes pointus, les étamines sont jaunes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont en groupes latéraux et regroupées en cymes corymbiformes, la corolle blanche est composée de cinq lobes pointus, les étamines sont jaunes.
 Elles se transforment en baies globuleuses jaunâtres ou grisâtres à maturité.
-Fruits
-Les fruits en grappes sont des baies sphériques, globuleuses vertes, jaunâtres à maturité d'environ 1 cm de diamètre.  Ils ont une chair fine et contiennent de nombreuses graines plates, rondes et brunes (Howard 1989, Liogier 1995, Little et al. 1974).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits en grappes sont des baies sphériques, globuleuses vertes, jaunâtres à maturité d'environ 1 cm de diamètre.  Ils ont une chair fine et contiennent de nombreuses graines plates, rondes et brunes (Howard 1989, Liogier 1995, Little et al. 1974).
 			Fruits au Cambodge
 			Aspect général
 			Fruits en Indonésie
@@ -534,104 +656,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire des Antilles, cette espèce est désormais pantropicale.
-Caractère envahissant
-Cette espèce est envahissante dans certaines zones géographiques. En Nouvelle-Calédonie, où elle aurait été introduite en 1900, elle est une peste importante dans les pâturages négligés et les cultures[1],[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Noms vernaculaires</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mélongène-diable, bellangère bâtarde[3], bringelle marron[3], aubergine-pois, gnangnan (Côte d'Ivoire).
-En Haïti il porte le nom de zanmòrèt.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La bringelle marron est cultivée comme légume à petite échelle dans le sud et l’est de l’Asie et est particulièrement appréciée en Thaïlande où elle sert dans la confection de curry.
-En Côte d'Ivoire, où elle est appelée gnangnan, elle est utilisée dans la préparation de certains plats (sauce gnangnan ou gouagouassou) pour ses propriétés gustatives et médicinales.
-En Nouvelle-Calédonie, elle est appelée aubergine sauvage ou fausse aubergine du fait qu'elle soit utilisée comme porte-greffe pour les aubergines[1].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -653,13 +677,157 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire des Antilles, cette espèce est désormais pantropicale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est envahissante dans certaines zones géographiques. En Nouvelle-Calédonie, où elle aurait été introduite en 1900, elle est une peste importante dans les pâturages négligés et les cultures,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mélongène-diable, bellangère bâtarde, bringelle marron, aubergine-pois, gnangnan (Côte d'Ivoire).
+En Haïti il porte le nom de zanmòrèt.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bringelle marron est cultivée comme légume à petite échelle dans le sud et l’est de l’Asie et est particulièrement appréciée en Thaïlande où elle sert dans la confection de curry.
+En Côte d'Ivoire, où elle est appelée gnangnan, elle est utilisée dans la préparation de certains plats (sauce gnangnan ou gouagouassou) pour ses propriétés gustatives et médicinales.
+En Nouvelle-Calédonie, elle est appelée aubergine sauvage ou fausse aubergine du fait qu'elle soit utilisée comme porte-greffe pour les aubergines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (27 mai 2018)[4]
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (27 mai 2018)
 Solanum  acanthifolium Hort. Par. ex Dun.
 Solanum amoenum Jungh.
 Solanum campechiense Hort. Par. ex  Dun.
@@ -682,8 +850,43 @@
 Solanum torvum var. pleiotomum  C.Y. Wu &amp; S.C. Huang
 Solanum torvum var.  sinuatolobatium Kuntze
 Solanum wightii Miq. ex C. B.  Cl.
-Liste des variétés
-Selon Tropicos                                           (21 mai 2013)[5] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_torvum</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (21 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 Solanum torvum var. compactum C.B. Wright
 Solanum torvum var. daturifolium (Dunal) O.E. Schulz
 Solanum torvum var. hartwegianum Sendtn.
